--- a/src/main/resources/com/spicejet/resources/SpiceJet_PassengerTravelDetails.xlsx
+++ b/src/main/resources/com/spicejet/resources/SpiceJet_PassengerTravelDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EI90VVd\eclipse-workspace\travelwebsite\src\main\resources\com\spicejet\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{634D4679-13B2-42C4-A054-DAB14DBCBF61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{459CA813-6B38-4D7B-9E8F-4E02C27D38DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14050" windowHeight="3010" xr2:uid="{78B344BA-3F32-4407-B10F-6FF74B18C968}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23265" windowHeight="2340" xr2:uid="{78B344BA-3F32-4407-B10F-6FF74B18C968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
     <t>BLR</t>
   </si>
   <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
+    <t>May</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -463,20 +463,20 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -548,7 +548,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
